--- a/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0556DCC-61C8-4647-B682-DBAA40F0C729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBBDA97-DAA4-4CFF-BA06-01A625B48C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CA160026-86F7-4017-90AD-0BDBE9568159}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{903289A5-B95E-4B63-B7E4-5142F1DE8F68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,207 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
     <t>22,92%</t>
   </si>
   <si>
@@ -118,33 +298,6 @@
     <t>23,9%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
     <t>1,46%</t>
   </si>
   <si>
@@ -172,33 +325,6 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
     <t>1,07%</t>
   </si>
   <si>
@@ -226,130 +352,58 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>20,28%</t>
@@ -376,33 +430,6 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
     <t>1,39%</t>
   </si>
   <si>
@@ -430,33 +457,6 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
@@ -487,6 +487,177 @@
     <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
   </si>
   <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
     <t>26,65%</t>
   </si>
   <si>
@@ -511,33 +682,6 @@
     <t>28,59%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
     <t>1,79%</t>
   </si>
   <si>
@@ -562,33 +706,6 @@
     <t>4,83%</t>
   </si>
   <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
@@ -613,121 +730,58 @@
     <t>2,72%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>26,09%</t>
@@ -751,33 +805,6 @@
     <t>26,74%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
     <t>3,5%</t>
   </si>
   <si>
@@ -802,33 +829,6 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
@@ -856,6 +856,180 @@
     <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
   </si>
   <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
     <t>19,76%</t>
   </si>
   <si>
@@ -883,33 +1057,6 @@
     <t>24,0%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
     <t>3,82%</t>
   </si>
   <si>
@@ -937,33 +1084,6 @@
     <t>6,76%</t>
   </si>
   <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
@@ -988,124 +1108,52 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>19,36%</t>
@@ -1135,30 +1183,6 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
     <t>3,78%</t>
   </si>
   <si>
@@ -1184,30 +1208,6 @@
   </si>
   <si>
     <t>6,14%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
   </si>
   <si>
     <t>1,04%</t>
@@ -1614,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D97B6B-FF36-4B47-B17F-71188B6D973E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61F7B0D-A7C9-485A-845A-040C4BB69EDE}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2004,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>56757</v>
+        <v>39422</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2019,10 +2019,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>45146</v>
+        <v>30083</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2034,10 +2034,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>101903</v>
+        <v>69506</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2055,10 +2055,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>54493</v>
+        <v>11177</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2070,10 +2070,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>54838</v>
+        <v>11872</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2085,10 +2085,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="N11" s="7">
-        <v>109331</v>
+        <v>23049</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2106,10 +2106,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>3604</v>
+        <v>5197</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2121,10 +2121,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>6684</v>
+        <v>6285</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2136,10 +2136,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>10288</v>
+        <v>11482</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2157,10 +2157,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>130104</v>
+        <v>636</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2172,34 +2172,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>130976</v>
+        <v>642</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1278</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>386</v>
-      </c>
-      <c r="N13" s="7">
-        <v>261080</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,49 +2208,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2642</v>
+        <v>1385</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1385</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2057</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4699</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,102 +2259,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>371</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7">
-        <v>247600</v>
+        <v>57817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>356</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>239701</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>727</v>
+        <v>161</v>
       </c>
       <c r="N15" s="7">
-        <v>487301</v>
+        <v>106700</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="D16" s="7">
-        <v>5197</v>
+        <v>130104</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>192</v>
+      </c>
+      <c r="I16" s="7">
+        <v>130976</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>386</v>
+      </c>
+      <c r="N16" s="7">
+        <v>261080</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6285</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>17</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11482</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,49 +2363,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>11177</v>
+        <v>54493</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
+        <v>82</v>
+      </c>
+      <c r="I17" s="7">
+        <v>54838</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>164</v>
+      </c>
+      <c r="N17" s="7">
+        <v>109331</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7">
-        <v>11872</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="7">
-        <v>35</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23049</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,49 +2414,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D18" s="7">
-        <v>636</v>
+        <v>56757</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7">
+        <v>69</v>
+      </c>
+      <c r="I18" s="7">
+        <v>45146</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>155</v>
+      </c>
+      <c r="N18" s="7">
+        <v>101903</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>642</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1278</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,49 +2465,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>39422</v>
+        <v>3604</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6684</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="7">
-        <v>45</v>
-      </c>
-      <c r="I19" s="7">
-        <v>30083</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>15</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10288</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M19" s="7">
-        <v>105</v>
-      </c>
-      <c r="N19" s="7">
-        <v>69506</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,46 +2516,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>1385</v>
+        <v>2642</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2057</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>7</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4699</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1385</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>103</v>
@@ -2567,49 +2567,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>88</v>
+        <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>57817</v>
+        <v>247600</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>239701</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>161</v>
+        <v>727</v>
       </c>
       <c r="N21" s="7">
-        <v>106700</v>
+        <v>487301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,10 +2620,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="D22" s="7">
-        <v>61954</v>
+        <v>169526</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>104</v>
@@ -2635,10 +2635,10 @@
         <v>106</v>
       </c>
       <c r="H22" s="7">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="I22" s="7">
-        <v>51431</v>
+        <v>161059</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>107</v>
@@ -2650,10 +2650,10 @@
         <v>109</v>
       </c>
       <c r="M22" s="7">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="N22" s="7">
-        <v>113385</v>
+        <v>330585</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>110</v>
@@ -2662,7 +2662,7 @@
         <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2677,13 @@
         <v>65670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -2692,13 +2692,13 @@
         <v>66710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>199</v>
@@ -2707,13 +2707,13 @@
         <v>132380</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +2722,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7">
-        <v>4240</v>
+        <v>61954</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="I24" s="7">
-        <v>7325</v>
+        <v>51431</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M24" s="7">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="N24" s="7">
-        <v>11565</v>
+        <v>113385</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,10 +2773,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>169526</v>
+        <v>4240</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>130</v>
@@ -2788,10 +2788,10 @@
         <v>132</v>
       </c>
       <c r="H25" s="7">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>161059</v>
+        <v>7325</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>133</v>
@@ -2803,10 +2803,10 @@
         <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>491</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>330585</v>
+        <v>11565</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>136</v>
@@ -2881,13 +2881,13 @@
         <v>305417</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>429</v>
@@ -2896,13 +2896,13 @@
         <v>288583</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>888</v>
@@ -2911,13 +2911,13 @@
         <v>594000</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8848ABB-3655-48CC-B3F7-E060EE189465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B00C4A2-98E7-4BFD-9E6C-6A2EBB73DDEF}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3326,10 +3326,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>68558</v>
+        <v>36910</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>149</v>
@@ -3341,10 +3341,10 @@
         <v>151</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>58642</v>
+        <v>40398</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>152</v>
@@ -3356,19 +3356,19 @@
         <v>154</v>
       </c>
       <c r="M10" s="7">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>127200</v>
+        <v>77308</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3377,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>42605</v>
+        <v>10479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>57017</v>
+        <v>13209</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>99622</v>
+        <v>23687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3428,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>8359</v>
+        <v>15838</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>8322</v>
+        <v>10633</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N12" s="7">
-        <v>16681</v>
+        <v>26471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,28 +3479,28 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>135808</v>
+        <v>2948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>112127</v>
+        <v>3518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>178</v>
@@ -3509,10 +3509,10 @@
         <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>247935</v>
+        <v>6466</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>180</v>
@@ -3530,49 +3530,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1954</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>930</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5929</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>930</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="M14" s="7">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7883</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,102 +3581,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>257284</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242038</v>
+        <v>68688</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>723</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>499321</v>
+        <v>134862</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7">
-        <v>15838</v>
+        <v>135808</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="7">
+        <v>161</v>
+      </c>
+      <c r="I16" s="7">
+        <v>112127</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10633</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>359</v>
+      </c>
+      <c r="N16" s="7">
+        <v>247935</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="M16" s="7">
-        <v>38</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26471</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,49 +3685,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7">
-        <v>10479</v>
+        <v>42605</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="7">
+        <v>82</v>
+      </c>
+      <c r="I17" s="7">
+        <v>57017</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13209</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>147</v>
+      </c>
+      <c r="N17" s="7">
+        <v>99622</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="M17" s="7">
-        <v>33</v>
-      </c>
-      <c r="N17" s="7">
-        <v>23687</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,49 +3736,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D18" s="7">
-        <v>2948</v>
+        <v>68558</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="7">
+        <v>82</v>
+      </c>
+      <c r="I18" s="7">
+        <v>58642</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3518</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>182</v>
+      </c>
+      <c r="N18" s="7">
+        <v>127200</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="M18" s="7">
-        <v>9</v>
-      </c>
-      <c r="N18" s="7">
-        <v>6466</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,49 +3787,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>36910</v>
+        <v>8359</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="7">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7">
+        <v>8322</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="7">
-        <v>57</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40398</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>24</v>
+      </c>
+      <c r="N19" s="7">
+        <v>16681</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="M19" s="7">
-        <v>108</v>
-      </c>
-      <c r="N19" s="7">
-        <v>77308</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,46 +3838,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5929</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>930</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>11</v>
+      </c>
+      <c r="N20" s="7">
+        <v>7883</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>930</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>229</v>
@@ -3889,49 +3889,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>257284</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>68688</v>
+        <v>242038</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>723</v>
       </c>
       <c r="N21" s="7">
-        <v>134862</v>
+        <v>499321</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,10 +3942,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>122</v>
+        <v>249</v>
       </c>
       <c r="D22" s="7">
-        <v>84396</v>
+        <v>172718</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>230</v>
@@ -3957,34 +3957,34 @@
         <v>232</v>
       </c>
       <c r="H22" s="7">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="I22" s="7">
-        <v>69275</v>
+        <v>152525</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="N22" s="7">
-        <v>153671</v>
+        <v>325244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3999,13 @@
         <v>53083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -4014,13 +4014,13 @@
         <v>70226</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M23" s="7">
         <v>180</v>
@@ -4029,13 +4029,13 @@
         <v>123310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +4044,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="D24" s="7">
-        <v>11307</v>
+        <v>84396</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="H24" s="7">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="I24" s="7">
-        <v>11840</v>
+        <v>69275</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M24" s="7">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="N24" s="7">
-        <v>23147</v>
+        <v>153671</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,25 +4095,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>172718</v>
+        <v>11307</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="H25" s="7">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>152525</v>
+        <v>11840</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>257</v>
@@ -4125,10 +4125,10 @@
         <v>259</v>
       </c>
       <c r="M25" s="7">
-        <v>467</v>
+        <v>33</v>
       </c>
       <c r="N25" s="7">
-        <v>325244</v>
+        <v>23147</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>260</v>
@@ -4182,7 +4182,7 @@
         <v>8813</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>269</v>
@@ -4203,13 +4203,13 @@
         <v>323458</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4218,13 +4218,13 @@
         <v>310726</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>912</v>
@@ -4233,13 +4233,13 @@
         <v>634184</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4258,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA2046-8D5A-41AC-BD97-8E718CDA376D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E8D14A-E071-40A2-80DA-1D6495E23567}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4648,10 +4648,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>54004</v>
+        <v>40762</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>272</v>
@@ -4663,10 +4663,10 @@
         <v>274</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>55606</v>
+        <v>42380</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>275</v>
@@ -4678,10 +4678,10 @@
         <v>277</v>
       </c>
       <c r="M10" s="7">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>109610</v>
+        <v>83142</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>278</v>
@@ -4699,10 +4699,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>80388</v>
+        <v>16552</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>281</v>
@@ -4714,10 +4714,10 @@
         <v>283</v>
       </c>
       <c r="H11" s="7">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>65616</v>
+        <v>18621</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>284</v>
@@ -4729,10 +4729,10 @@
         <v>286</v>
       </c>
       <c r="M11" s="7">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>146004</v>
+        <v>35173</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>287</v>
@@ -4750,49 +4750,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>10442</v>
+        <v>13605</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>28</v>
+      </c>
+      <c r="I12" s="7">
+        <v>18818</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14023</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>47</v>
+      </c>
+      <c r="N12" s="7">
+        <v>32423</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="M12" s="7">
-        <v>35</v>
-      </c>
-      <c r="N12" s="7">
-        <v>24465</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,49 +4801,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>127059</v>
+        <v>2754</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5198</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="7">
-        <v>165</v>
-      </c>
-      <c r="I13" s="7">
-        <v>117456</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>12</v>
+      </c>
+      <c r="N13" s="7">
+        <v>7952</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="M13" s="7">
-        <v>336</v>
-      </c>
-      <c r="N13" s="7">
-        <v>244515</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,49 +4852,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1444</v>
+        <v>2193</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>675</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2868</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3674</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M14" s="7">
-        <v>7</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5117</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,102 +4903,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>256375</v>
+        <v>85692</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>729</v>
+        <v>239</v>
       </c>
       <c r="N15" s="7">
-        <v>529712</v>
+        <v>161558</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D16" s="7">
-        <v>13605</v>
+        <v>127059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="7">
+        <v>165</v>
+      </c>
+      <c r="I16" s="7">
+        <v>117456</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18818</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>336</v>
+      </c>
+      <c r="N16" s="7">
+        <v>244515</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="M16" s="7">
-        <v>47</v>
-      </c>
-      <c r="N16" s="7">
-        <v>32423</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,49 +5007,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>16552</v>
+        <v>80388</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>92</v>
+      </c>
+      <c r="I17" s="7">
+        <v>65616</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H17" s="7">
-        <v>30</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18621</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>201</v>
+      </c>
+      <c r="N17" s="7">
+        <v>146004</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="M17" s="7">
-        <v>54</v>
-      </c>
-      <c r="N17" s="7">
-        <v>35173</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,49 +5058,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>2754</v>
+        <v>54004</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>77</v>
+      </c>
+      <c r="I18" s="7">
+        <v>55606</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5198</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>150</v>
+      </c>
+      <c r="N18" s="7">
+        <v>109610</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="M18" s="7">
-        <v>12</v>
-      </c>
-      <c r="N18" s="7">
-        <v>7952</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,49 +5109,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>40762</v>
+        <v>10442</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7">
+        <v>14023</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H19" s="7">
-        <v>62</v>
-      </c>
-      <c r="I19" s="7">
-        <v>42380</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>35</v>
+      </c>
+      <c r="N19" s="7">
+        <v>24465</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M19" s="7">
-        <v>122</v>
-      </c>
-      <c r="N19" s="7">
-        <v>83142</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,40 +5160,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>2193</v>
+        <v>1444</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3674</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>675</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>352</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>2868</v>
+        <v>5117</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>353</v>
@@ -5211,49 +5211,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>85692</v>
+        <v>256375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>239</v>
+        <v>729</v>
       </c>
       <c r="N21" s="7">
-        <v>161558</v>
+        <v>529712</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +5264,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D22" s="7">
-        <v>67609</v>
+        <v>167821</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>227</v>
+      </c>
+      <c r="I22" s="7">
+        <v>159836</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H22" s="7">
-        <v>105</v>
-      </c>
-      <c r="I22" s="7">
-        <v>74425</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>458</v>
+      </c>
+      <c r="N22" s="7">
+        <v>327657</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="M22" s="7">
-        <v>197</v>
-      </c>
-      <c r="N22" s="7">
-        <v>142033</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5321,13 @@
         <v>96940</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H23" s="7">
         <v>122</v>
@@ -5336,13 +5336,13 @@
         <v>84237</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M23" s="7">
         <v>255</v>
@@ -5351,13 +5351,13 @@
         <v>181177</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,49 +5366,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D24" s="7">
-        <v>13196</v>
+        <v>67609</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>105</v>
+      </c>
+      <c r="I24" s="7">
+        <v>74425</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H24" s="7">
-        <v>28</v>
-      </c>
-      <c r="I24" s="7">
-        <v>19221</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>197</v>
+      </c>
+      <c r="N24" s="7">
+        <v>142033</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="M24" s="7">
-        <v>47</v>
-      </c>
-      <c r="N24" s="7">
-        <v>32417</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5417,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>167821</v>
+        <v>13196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>382</v>
@@ -5432,10 +5432,10 @@
         <v>383</v>
       </c>
       <c r="H25" s="7">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>159836</v>
+        <v>19221</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>384</v>
@@ -5447,10 +5447,10 @@
         <v>386</v>
       </c>
       <c r="M25" s="7">
-        <v>458</v>
+        <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>327657</v>
+        <v>32417</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>387</v>
@@ -5477,7 +5477,7 @@
         <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>391</v>
@@ -5492,10 +5492,10 @@
         <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5504,7 +5504,7 @@
         <v>7986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>393</v>
@@ -5525,13 +5525,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>488</v>
@@ -5540,13 +5540,13 @@
         <v>342067</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>968</v>
@@ -5555,13 +5555,13 @@
         <v>691270</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBBDA97-DAA4-4CFF-BA06-01A625B48C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A8FA80-6550-47EE-ADB4-6B506462E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{903289A5-B95E-4B63-B7E4-5142F1DE8F68}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4426FC2-1C0A-4D2A-BC85-82B0EAE8F718}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="394">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 42,21%)</t>
   </si>
@@ -67,1162 +67,1159 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
   </si>
   <si>
     <t>68,18%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>12,52%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1230,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1329,39 +1326,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1413,7 +1410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1524,13 +1521,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1539,6 +1529,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1603,19 +1600,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61F7B0D-A7C9-485A-845A-040C4BB69EDE}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4278F-FC7B-4145-BB1E-BF1C6DC013AF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2004,49 +2021,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7">
-        <v>39422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
-      </c>
-      <c r="N10" s="7">
-        <v>69506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +2066,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>35</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,49 +2111,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
-      </c>
-      <c r="N12" s="7">
-        <v>11482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,49 +2156,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>636</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>642</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,49 +2201,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,102 +2246,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>88</v>
-      </c>
-      <c r="D15" s="7">
-        <v>57817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>161</v>
-      </c>
-      <c r="N15" s="7">
-        <v>106700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>130104</v>
+        <v>2681</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>130976</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>261080</v>
+        <v>2681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,49 +2344,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>54493</v>
+        <v>2147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>54838</v>
+        <v>2550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>109331</v>
+        <v>4697</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,49 +2395,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>56757</v>
+        <v>17944</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>45146</v>
+        <v>16567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="N18" s="7">
-        <v>101903</v>
+        <v>34511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,49 +2446,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>3604</v>
+        <v>24883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>6684</v>
+        <v>28389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N19" s="7">
-        <v>10288</v>
+        <v>53272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,49 +2497,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D20" s="7">
-        <v>2642</v>
+        <v>74003</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7">
         <v>96</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
       <c r="I20" s="7">
-        <v>2057</v>
+        <v>64205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="N20" s="7">
-        <v>4699</v>
+        <v>138207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,102 +2548,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>371</v>
+        <v>183</v>
       </c>
       <c r="D21" s="7">
-        <v>247600</v>
+        <v>121657</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>239701</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>727</v>
+        <v>351</v>
       </c>
       <c r="N21" s="7">
-        <v>487301</v>
+        <v>233367</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>169526</v>
+        <v>1347</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>161059</v>
+        <v>2057</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>330585</v>
+        <v>3404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2652,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>65670</v>
+        <v>2093</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>66710</v>
+        <v>4775</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
-        <v>132380</v>
+        <v>6868</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +2703,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7">
-        <v>61954</v>
+        <v>44010</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I24" s="7">
-        <v>51431</v>
+        <v>34864</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="N24" s="7">
-        <v>113385</v>
+        <v>78874</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,49 +2754,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>4240</v>
+        <v>40787</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I25" s="7">
-        <v>7325</v>
+        <v>38321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="N25" s="7">
-        <v>11565</v>
+        <v>79108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,49 +2805,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="D26" s="7">
-        <v>4028</v>
+        <v>95524</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7">
         <v>141</v>
       </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
       <c r="I26" s="7">
-        <v>2057</v>
+        <v>96855</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
-        <v>9</v>
+        <v>284</v>
       </c>
       <c r="N26" s="7">
-        <v>6085</v>
+        <v>192379</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,55 +2856,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>276</v>
+      </c>
+      <c r="D27" s="7">
+        <v>183761</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>261</v>
+      </c>
+      <c r="I27" s="7">
+        <v>176872</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>537</v>
+      </c>
+      <c r="N27" s="7">
+        <v>360633</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4028</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2057</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="7">
+        <v>9</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6085</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4240</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
+        <v>11</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7325</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="7">
+        <v>17</v>
+      </c>
+      <c r="N29" s="7">
+        <v>11565</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>94</v>
+      </c>
+      <c r="D30" s="7">
+        <v>61954</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="7">
+        <v>78</v>
+      </c>
+      <c r="I30" s="7">
+        <v>51431</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M30" s="7">
+        <v>172</v>
+      </c>
+      <c r="N30" s="7">
+        <v>113385</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>99</v>
+      </c>
+      <c r="D31" s="7">
+        <v>65670</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="7">
+        <v>100</v>
+      </c>
+      <c r="I31" s="7">
+        <v>66710</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="7">
+        <v>199</v>
+      </c>
+      <c r="N31" s="7">
+        <v>132380</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>254</v>
+      </c>
+      <c r="D32" s="7">
+        <v>169526</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="7">
+        <v>237</v>
+      </c>
+      <c r="I32" s="7">
+        <v>161059</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="7">
+        <v>491</v>
+      </c>
+      <c r="N32" s="7">
+        <v>330585</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>459</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>305417</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>429</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>288583</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>888</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>594000</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2936,8 +3231,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B00C4A2-98E7-4BFD-9E6C-6A2EBB73DDEF}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF71E19-018B-4C29-809E-8C1174C44B2F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2953,7 +3248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3326,49 +3621,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7">
-        <v>36910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
-      </c>
-      <c r="I10" s="7">
-        <v>40398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>108</v>
-      </c>
-      <c r="N10" s="7">
-        <v>77308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3666,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7">
-        <v>10479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13209</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>23687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3711,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7">
-        <v>15838</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>26471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,49 +3756,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
-      </c>
-      <c r="N13" s="7">
-        <v>6466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,47 +3803,41 @@
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,102 +3846,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134862</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>135808</v>
+        <v>1232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>112127</v>
+        <v>2624</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
-        <v>359</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>247935</v>
+        <v>3856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,49 +3944,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>42605</v>
+        <v>5097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>57017</v>
+        <v>6997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="N17" s="7">
-        <v>99622</v>
+        <v>12093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,49 +3995,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>68558</v>
+        <v>40201</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I18" s="7">
-        <v>58642</v>
+        <v>24751</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>127200</v>
+        <v>64952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,49 +4046,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>8359</v>
+        <v>26282</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="7">
+        <v>49</v>
+      </c>
+      <c r="I19" s="7">
+        <v>34405</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="7">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8322</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>24</v>
-      </c>
       <c r="N19" s="7">
-        <v>16681</v>
+        <v>60687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,49 +4097,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>1954</v>
+        <v>81334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="I20" s="7">
-        <v>5929</v>
+        <v>80508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="N20" s="7">
-        <v>7883</v>
+        <v>161841</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,102 +4148,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7">
-        <v>257284</v>
+        <v>154145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>242038</v>
+        <v>149285</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>723</v>
+        <v>434</v>
       </c>
       <c r="N21" s="7">
-        <v>499321</v>
+        <v>303429</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>172718</v>
+        <v>722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>152525</v>
+        <v>4236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
-        <v>467</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>325244</v>
+        <v>4957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,49 +4252,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>53083</v>
+        <v>6211</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="H23" s="7">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>70226</v>
+        <v>4843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="M23" s="7">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>123310</v>
+        <v>11054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +4303,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D24" s="7">
-        <v>84396</v>
+        <v>44195</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="H24" s="7">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="I24" s="7">
-        <v>69275</v>
+        <v>44524</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="M24" s="7">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="N24" s="7">
-        <v>153671</v>
+        <v>88719</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,49 +4354,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7">
-        <v>11307</v>
+        <v>26802</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="H25" s="7">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>11840</v>
+        <v>35821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="N25" s="7">
-        <v>23147</v>
+        <v>62622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,49 +4405,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7">
-        <v>1954</v>
+        <v>91384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="I26" s="7">
-        <v>6859</v>
+        <v>72018</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="N26" s="7">
-        <v>8813</v>
+        <v>163402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,55 +4456,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>249</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169313</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161441</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>330754</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1954</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="7">
+        <v>9</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6859</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" s="7">
+        <v>12</v>
+      </c>
+      <c r="N28" s="7">
+        <v>8813</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11307</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="7">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7">
+        <v>11840</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29" s="7">
+        <v>33</v>
+      </c>
+      <c r="N29" s="7">
+        <v>23147</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>122</v>
+      </c>
+      <c r="D30" s="7">
+        <v>84396</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="7">
+        <v>98</v>
+      </c>
+      <c r="I30" s="7">
+        <v>69275</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" s="7">
+        <v>220</v>
+      </c>
+      <c r="N30" s="7">
+        <v>153671</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>80</v>
+      </c>
+      <c r="D31" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="7">
+        <v>100</v>
+      </c>
+      <c r="I31" s="7">
+        <v>70226</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" s="7">
+        <v>180</v>
+      </c>
+      <c r="N31" s="7">
+        <v>123310</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>249</v>
+      </c>
+      <c r="D32" s="7">
+        <v>172718</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="7">
+        <v>218</v>
+      </c>
+      <c r="I32" s="7">
+        <v>152525</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" s="7">
+        <v>467</v>
+      </c>
+      <c r="N32" s="7">
+        <v>325244</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>470</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>323458</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310726</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>912</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>634184</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4258,8 +4831,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E8D14A-E071-40A2-80DA-1D6495E23567}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8C7378-953E-4873-B451-451E74CD5A22}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4275,7 +4848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4648,49 +5221,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7">
-        <v>40762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
-      </c>
-      <c r="N10" s="7">
-        <v>83142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,49 +5266,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7">
-        <v>16552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
-      </c>
-      <c r="N11" s="7">
-        <v>35173</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,49 +5311,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18818</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>47</v>
-      </c>
-      <c r="N12" s="7">
-        <v>32423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,49 +5356,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>7952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,49 +5401,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,102 +5446,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>239</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>127059</v>
+        <v>3637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>117456</v>
+        <v>1916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>244515</v>
+        <v>5553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,49 +5544,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>80388</v>
+        <v>6301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>65616</v>
+        <v>8208</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>146004</v>
+        <v>14509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,49 +5595,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>54004</v>
+        <v>26399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I18" s="7">
-        <v>55606</v>
+        <v>37774</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>109610</v>
+        <v>64173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,49 +5646,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>10442</v>
+        <v>43630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7">
-        <v>14023</v>
+        <v>39125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>344</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N19" s="7">
-        <v>24465</v>
+        <v>82755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,49 +5697,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>1444</v>
+        <v>98644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="I20" s="7">
-        <v>3674</v>
+        <v>91626</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="N20" s="7">
-        <v>5117</v>
+        <v>190270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,102 +5748,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="I21" s="7">
-        <v>256375</v>
+        <v>178649</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>729</v>
+        <v>506</v>
       </c>
       <c r="N21" s="7">
-        <v>529712</v>
+        <v>357260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>167821</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>159836</v>
+        <v>2432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>327657</v>
+        <v>2432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,49 +5852,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>96940</v>
+        <v>6896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="H23" s="7">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I23" s="7">
-        <v>84237</v>
+        <v>11013</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="N23" s="7">
-        <v>181177</v>
+        <v>17908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>370</v>
+        <v>284</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,49 +5903,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>67609</v>
+        <v>41210</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="H24" s="7">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7">
-        <v>74425</v>
+        <v>36650</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="M24" s="7">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="N24" s="7">
-        <v>142033</v>
+        <v>77860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +5954,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7">
-        <v>13196</v>
+        <v>53309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>19221</v>
+        <v>45113</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>385</v>
+        <v>222</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="N25" s="7">
-        <v>32417</v>
+        <v>98422</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,49 +6005,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D26" s="7">
-        <v>3637</v>
+        <v>69177</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="7">
+        <v>98</v>
+      </c>
+      <c r="I26" s="7">
+        <v>68210</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M26" s="7">
+        <v>191</v>
+      </c>
+      <c r="N26" s="7">
+        <v>137387</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4348</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" s="7">
-        <v>11</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7986</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,55 +6056,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>232</v>
+      </c>
+      <c r="I27" s="7">
+        <v>163418</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>462</v>
+      </c>
+      <c r="N27" s="7">
+        <v>334010</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3637</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4348</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" s="7">
+        <v>11</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7986</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7">
+        <v>13196</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H29" s="7">
+        <v>28</v>
+      </c>
+      <c r="I29" s="7">
+        <v>19221</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M29" s="7">
+        <v>47</v>
+      </c>
+      <c r="N29" s="7">
+        <v>32417</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7">
+        <v>67609</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H30" s="7">
+        <v>105</v>
+      </c>
+      <c r="I30" s="7">
+        <v>74425</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M30" s="7">
+        <v>197</v>
+      </c>
+      <c r="N30" s="7">
+        <v>142033</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>133</v>
+      </c>
+      <c r="D31" s="7">
+        <v>96940</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H31" s="7">
+        <v>122</v>
+      </c>
+      <c r="I31" s="7">
+        <v>84237</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M31" s="7">
+        <v>255</v>
+      </c>
+      <c r="N31" s="7">
+        <v>181177</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>231</v>
+      </c>
+      <c r="D32" s="7">
+        <v>167821</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H32" s="7">
+        <v>227</v>
+      </c>
+      <c r="I32" s="7">
+        <v>159836</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M32" s="7">
+        <v>458</v>
+      </c>
+      <c r="N32" s="7">
+        <v>327657</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>488</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>342067</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>968</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>691270</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A8FA80-6550-47EE-ADB4-6B506462E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{682B5DC9-187A-46FA-B8A1-78573CAD67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4426FC2-1C0A-4D2A-BC85-82B0EAE8F718}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FEC4DA8B-1233-4061-BAFB-312090EE4BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="388">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 42,21%)</t>
   </si>
@@ -100,7 +100,7 @@
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,65%</t>
+    <t>5,48%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -118,1108 +118,1090 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>3,06%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2015 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>27,76%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4278F-FC7B-4145-BB1E-BF1C6DC013AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5AF04B-811F-4D3F-B408-B8A4A3A31790}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2643,7 +2625,7 @@
         <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>73</v>
@@ -2936,7 +2918,7 @@
         <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -2945,13 +2927,13 @@
         <v>6085</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2948,13 @@
         <v>4240</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -2981,13 +2963,13 @@
         <v>7325</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2996,13 +2978,13 @@
         <v>11565</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2999,13 @@
         <v>61954</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>78</v>
@@ -3032,13 +3014,13 @@
         <v>51431</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -3047,13 +3029,13 @@
         <v>113385</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3050,13 @@
         <v>65670</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
@@ -3083,13 +3065,13 @@
         <v>66710</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M31" s="7">
         <v>199</v>
@@ -3098,13 +3080,13 @@
         <v>132380</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3101,13 @@
         <v>169526</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H32" s="7">
         <v>237</v>
@@ -3134,13 +3116,13 @@
         <v>161059</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M32" s="7">
         <v>491</v>
@@ -3149,13 +3131,13 @@
         <v>330585</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,7 +3193,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3231,7 +3213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF71E19-018B-4C29-809E-8C1174C44B2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF56DD-8966-4620-BDC4-C07D652A9D13}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3248,7 +3230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3899,13 +3881,13 @@
         <v>1232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3917,10 +3899,10 @@
         <v>27</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -3929,13 +3911,13 @@
         <v>3856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3932,13 @@
         <v>5097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3965,13 +3947,13 @@
         <v>6997</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3980,13 +3962,13 @@
         <v>12093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3983,13 @@
         <v>40201</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -4016,13 +3998,13 @@
         <v>24751</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -4031,13 +4013,13 @@
         <v>64952</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4034,13 @@
         <v>26282</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -4067,13 +4049,13 @@
         <v>34405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -4082,13 +4064,13 @@
         <v>60687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4085,13 @@
         <v>81334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -4118,13 +4100,13 @@
         <v>80508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>231</v>
@@ -4136,10 +4118,10 @@
         <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -4222,13 +4204,13 @@
         <v>4236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4237,13 +4219,13 @@
         <v>4957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4240,13 @@
         <v>6211</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -4273,13 +4255,13 @@
         <v>4843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -4288,13 +4270,13 @@
         <v>11054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4291,13 @@
         <v>44195</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -4324,13 +4306,13 @@
         <v>44524</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -4339,13 +4321,13 @@
         <v>88719</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4342,13 @@
         <v>26802</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -4375,13 +4357,13 @@
         <v>35821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -4390,13 +4372,13 @@
         <v>62622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4393,13 @@
         <v>91384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -4426,13 +4408,13 @@
         <v>72018</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>236</v>
@@ -4441,13 +4423,13 @@
         <v>163402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4497,13 @@
         <v>1954</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -4530,13 +4512,13 @@
         <v>6859</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -4545,13 +4527,13 @@
         <v>8813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4548,13 @@
         <v>11307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -4581,13 +4563,13 @@
         <v>11840</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -4596,13 +4578,13 @@
         <v>23147</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4599,13 @@
         <v>84396</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H30" s="7">
         <v>98</v>
@@ -4632,13 +4614,13 @@
         <v>69275</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -4647,13 +4629,13 @@
         <v>153671</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>257</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4650,13 @@
         <v>53083</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
@@ -4683,13 +4665,13 @@
         <v>70226</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M31" s="7">
         <v>180</v>
@@ -4698,13 +4680,13 @@
         <v>123310</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4701,13 @@
         <v>172718</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H32" s="7">
         <v>218</v>
@@ -4734,13 +4716,13 @@
         <v>152525</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M32" s="7">
         <v>467</v>
@@ -4749,13 +4731,13 @@
         <v>325244</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4793,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +4813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8C7378-953E-4873-B451-451E74CD5A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3182E684-A2EC-42F2-9DDD-5FBE3C7B8FEA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4848,7 +4830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5481,13 @@
         <v>3637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5514,13 +5496,13 @@
         <v>1916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5529,13 +5511,13 @@
         <v>5553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5532,13 @@
         <v>6301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -5565,13 +5547,13 @@
         <v>8208</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5580,13 +5562,13 @@
         <v>14509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5583,13 @@
         <v>26399</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -5616,13 +5598,13 @@
         <v>37774</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -5631,13 +5613,13 @@
         <v>64173</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5634,13 @@
         <v>43630</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -5667,13 +5649,13 @@
         <v>39125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5682,13 +5664,13 @@
         <v>82755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5685,13 @@
         <v>98644</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>129</v>
@@ -5718,13 +5700,13 @@
         <v>91626</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -5733,13 +5715,13 @@
         <v>190270</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,7 +5795,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5822,13 +5804,13 @@
         <v>2432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5840,10 +5822,10 @@
         <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5840,13 @@
         <v>6896</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -5873,13 +5855,13 @@
         <v>11013</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -5888,13 +5870,13 @@
         <v>17908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5891,13 @@
         <v>41210</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -5924,13 +5906,13 @@
         <v>36650</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -5939,13 +5921,13 @@
         <v>77860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5942,13 @@
         <v>53309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -5975,13 +5957,13 @@
         <v>45113</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -5990,13 +5972,13 @@
         <v>98422</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5993,13 @@
         <v>69177</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -6026,13 +6008,13 @@
         <v>68210</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -6041,13 +6023,13 @@
         <v>137387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6097,13 @@
         <v>3637</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6130,13 +6112,13 @@
         <v>4348</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>353</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -6148,10 +6130,10 @@
         <v>67</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>358</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6148,13 @@
         <v>13196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -6181,13 +6163,13 @@
         <v>19221</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -6196,13 +6178,13 @@
         <v>32417</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6199,13 @@
         <v>67609</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H30" s="7">
         <v>105</v>
@@ -6232,13 +6214,13 @@
         <v>74425</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M30" s="7">
         <v>197</v>
@@ -6247,13 +6229,13 @@
         <v>142033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6250,13 @@
         <v>96940</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H31" s="7">
         <v>122</v>
@@ -6283,13 +6265,13 @@
         <v>84237</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M31" s="7">
         <v>255</v>
@@ -6298,13 +6280,13 @@
         <v>181177</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6301,13 @@
         <v>167821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H32" s="7">
         <v>227</v>
@@ -6334,13 +6316,13 @@
         <v>159836</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M32" s="7">
         <v>458</v>
@@ -6349,13 +6331,13 @@
         <v>327657</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6393,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{682B5DC9-187A-46FA-B8A1-78573CAD67C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A69640-76E2-4B79-9BA7-B490320C6BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FEC4DA8B-1233-4061-BAFB-312090EE4BB1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A28E923-B6B5-4071-989C-2A781AD837F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="387">
   <si>
     <t>Menores según frecuencia de sentirse harto en 2007 (Tasa respuesta: 42,21%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,31 +94,40 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>1,76%</t>
@@ -127,1081 +136,1069 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>15,1%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>21,94%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 45,53%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2012 (Tasa respuesta: 43,45%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse harto en 2016 (Tasa respuesta: 45,53%)</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>25,75%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>27,76%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5AF04B-811F-4D3F-B408-B8A4A3A31790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F6FD5E-4867-401F-86D4-F8BF0B735397}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2275,10 +2272,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>2681</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2290,10 +2287,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2681</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2326,10 +2323,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2147</v>
+        <v>2550</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2341,10 +2338,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>2550</v>
+        <v>2147</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2377,10 +2374,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>17944</v>
+        <v>16567</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2392,10 +2389,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>16567</v>
+        <v>17944</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2428,10 +2425,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>24883</v>
+        <v>28389</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2443,10 +2440,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>28389</v>
+        <v>24883</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2479,10 +2476,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D20" s="7">
-        <v>74003</v>
+        <v>64205</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2494,10 +2491,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="I20" s="7">
-        <v>64205</v>
+        <v>74003</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2530,25 +2527,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>183</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>121657</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -2583,31 +2580,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>1347</v>
+        <v>2057</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>2057</v>
+        <v>1347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>69</v>
@@ -2622,10 +2619,10 @@
         <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,28 +2631,28 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4775</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="7">
         <v>3</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>2093</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4775</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>75</v>
@@ -2685,10 +2682,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>44010</v>
+        <v>34864</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>80</v>
@@ -2700,10 +2697,10 @@
         <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>34864</v>
+        <v>44010</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>83</v>
@@ -2736,10 +2733,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7">
-        <v>40787</v>
+        <v>38321</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>89</v>
@@ -2751,10 +2748,10 @@
         <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I25" s="7">
-        <v>38321</v>
+        <v>40787</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>92</v>
@@ -2787,10 +2784,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="7">
-        <v>95524</v>
+        <v>96855</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>98</v>
@@ -2802,10 +2799,10 @@
         <v>100</v>
       </c>
       <c r="H26" s="7">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I26" s="7">
-        <v>96855</v>
+        <v>95524</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>101</v>
@@ -2838,25 +2835,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>261</v>
+      </c>
+      <c r="D27" s="7">
+        <v>176872</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>276</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>183761</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>261</v>
-      </c>
-      <c r="I27" s="7">
-        <v>176872</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -2891,10 +2888,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>4028</v>
+        <v>2057</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>107</v>
@@ -2906,10 +2903,10 @@
         <v>109</v>
       </c>
       <c r="H28" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" s="7">
-        <v>2057</v>
+        <v>4028</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>110</v>
@@ -2918,7 +2915,7 @@
         <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -2927,13 +2924,13 @@
         <v>6085</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,34 +2939,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7325</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="7">
         <v>6</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>4240</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="7">
-        <v>11</v>
-      </c>
-      <c r="I29" s="7">
-        <v>7325</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2978,13 +2975,13 @@
         <v>11565</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,34 +2990,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7">
+        <v>51431</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="7">
         <v>94</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>61954</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="7">
-        <v>78</v>
-      </c>
-      <c r="I30" s="7">
-        <v>51431</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>172</v>
@@ -3029,13 +3026,13 @@
         <v>113385</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,34 +3041,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7">
+        <v>66710</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="7">
         <v>99</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>65670</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="7">
-        <v>100</v>
-      </c>
-      <c r="I31" s="7">
-        <v>66710</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>199</v>
@@ -3080,13 +3077,13 @@
         <v>132380</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,34 +3092,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>237</v>
+      </c>
+      <c r="D32" s="7">
+        <v>161059</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="7">
         <v>254</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>169526</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="7">
-        <v>237</v>
-      </c>
-      <c r="I32" s="7">
-        <v>161059</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>491</v>
@@ -3131,13 +3128,13 @@
         <v>330585</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,25 +3143,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>429</v>
+      </c>
+      <c r="D33" s="7">
+        <v>288583</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>459</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>305417</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>429</v>
-      </c>
-      <c r="I33" s="7">
-        <v>288583</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -3193,7 +3190,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF56DD-8966-4620-BDC4-C07D652A9D13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88626C9-B9F3-48FF-96EC-D44E455031E6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,7 +3227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3875,31 +3872,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>1232</v>
+        <v>2624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>2624</v>
+        <v>1232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>154</v>
@@ -3914,10 +3911,10 @@
         <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,34 +3923,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6997</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7">
         <v>7</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>5097</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6997</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3962,13 +3959,13 @@
         <v>12093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,34 +3974,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7">
+        <v>24751</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="7">
         <v>57</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>40201</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="7">
-        <v>36</v>
-      </c>
-      <c r="I18" s="7">
-        <v>24751</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -4013,13 +4010,13 @@
         <v>64952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,34 +4025,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7">
+        <v>34405</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="7">
         <v>39</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>26282</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H19" s="7">
-        <v>49</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34405</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -4064,13 +4061,13 @@
         <v>60687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,34 +4076,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>115</v>
+      </c>
+      <c r="D20" s="7">
+        <v>80508</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="7">
         <v>116</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>81334</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="7">
-        <v>115</v>
-      </c>
-      <c r="I20" s="7">
-        <v>80508</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>231</v>
@@ -4118,10 +4115,10 @@
         <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,25 +4127,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149285</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>221</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>154145</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149285</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -4183,34 +4180,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4236</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>722</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>4236</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -4219,13 +4216,13 @@
         <v>4957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,34 +4231,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4843</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="7">
         <v>9</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>6211</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4843</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -4270,13 +4267,13 @@
         <v>11054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,34 +4282,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>62</v>
+      </c>
+      <c r="D24" s="7">
+        <v>44524</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="7">
         <v>65</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>44195</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="7">
-        <v>62</v>
-      </c>
-      <c r="I24" s="7">
-        <v>44524</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M24" s="7">
         <v>127</v>
@@ -4321,13 +4318,13 @@
         <v>88719</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,34 +4333,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35821</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="7">
         <v>41</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>26802</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="7">
-        <v>51</v>
-      </c>
-      <c r="I25" s="7">
-        <v>35821</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -4372,13 +4369,13 @@
         <v>62622</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,34 +4384,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>103</v>
+      </c>
+      <c r="D26" s="7">
+        <v>72018</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="7">
         <v>133</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>91384</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="7">
-        <v>103</v>
-      </c>
-      <c r="I26" s="7">
-        <v>72018</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M26" s="7">
         <v>236</v>
@@ -4423,13 +4420,13 @@
         <v>163402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,25 +4435,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161441</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>249</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169313</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161441</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -4491,34 +4488,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>9</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6859</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>1954</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H28" s="7">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6859</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -4527,13 +4524,13 @@
         <v>8813</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,34 +4539,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11840</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="7">
         <v>16</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>11307</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H29" s="7">
-        <v>17</v>
-      </c>
-      <c r="I29" s="7">
-        <v>11840</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -4578,13 +4575,13 @@
         <v>23147</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,34 +4590,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7">
+        <v>69275</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="7">
         <v>122</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>84396</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H30" s="7">
-        <v>98</v>
-      </c>
-      <c r="I30" s="7">
-        <v>69275</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>220</v>
@@ -4629,13 +4626,13 @@
         <v>153671</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,34 +4641,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7">
+        <v>70226</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H31" s="7">
         <v>80</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>53083</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H31" s="7">
-        <v>100</v>
-      </c>
-      <c r="I31" s="7">
-        <v>70226</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M31" s="7">
         <v>180</v>
@@ -4680,13 +4677,13 @@
         <v>123310</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,34 +4692,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>218</v>
+      </c>
+      <c r="D32" s="7">
+        <v>152525</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H32" s="7">
         <v>249</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>172718</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H32" s="7">
-        <v>218</v>
-      </c>
-      <c r="I32" s="7">
-        <v>152525</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M32" s="7">
         <v>467</v>
@@ -4731,13 +4728,13 @@
         <v>325244</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,25 +4743,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310726</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>470</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>323458</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310726</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -4793,7 +4790,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3182E684-A2EC-42F2-9DDD-5FBE3C7B8FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03690B9A-4D19-4625-A687-BA7BD6580C44}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4830,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5475,34 +5472,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1916</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3637</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1916</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5511,13 +5508,13 @@
         <v>5553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,34 +5523,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8208</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>6301</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>12</v>
-      </c>
-      <c r="I17" s="7">
-        <v>8208</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -5562,13 +5559,13 @@
         <v>14509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,25 +5574,25 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7">
+        <v>37774</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="7">
         <v>37</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>26399</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H18" s="7">
-        <v>53</v>
-      </c>
-      <c r="I18" s="7">
-        <v>37774</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>290</v>
@@ -5613,13 +5610,13 @@
         <v>64173</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,34 +5625,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7">
+        <v>39125</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="7">
         <v>61</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>43630</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>39125</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -5664,13 +5661,13 @@
         <v>82755</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,34 +5676,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>129</v>
+      </c>
+      <c r="D20" s="7">
+        <v>91626</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="7">
         <v>138</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>98644</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="H20" s="7">
-        <v>129</v>
-      </c>
-      <c r="I20" s="7">
-        <v>91626</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>267</v>
@@ -5715,13 +5712,13 @@
         <v>190270</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,25 +5727,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>256</v>
+      </c>
+      <c r="D21" s="7">
+        <v>178649</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>256</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178649</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -5783,34 +5780,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>2432</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>313</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2432</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -5819,13 +5816,13 @@
         <v>2432</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,34 +5831,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7">
+        <v>11013</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="7">
         <v>10</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>6896</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H23" s="7">
-        <v>16</v>
-      </c>
-      <c r="I23" s="7">
-        <v>11013</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -5870,13 +5867,13 @@
         <v>17908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,34 +5882,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>36650</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="7">
         <v>55</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>41210</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36650</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -5921,13 +5918,13 @@
         <v>77860</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,34 +5933,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45113</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="7">
         <v>72</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>53309</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="7">
-        <v>63</v>
-      </c>
-      <c r="I25" s="7">
-        <v>45113</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -5972,13 +5969,13 @@
         <v>98422</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,34 +5984,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7">
+        <v>68210</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H26" s="7">
         <v>93</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>69177</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H26" s="7">
-        <v>98</v>
-      </c>
-      <c r="I26" s="7">
-        <v>68210</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>191</v>
@@ -6023,13 +6020,13 @@
         <v>137387</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,25 +6035,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>232</v>
+      </c>
+      <c r="D27" s="7">
+        <v>163418</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>232</v>
-      </c>
-      <c r="I27" s="7">
-        <v>163418</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -6091,28 +6088,28 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>3637</v>
+        <v>4348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>351</v>
       </c>
       <c r="H28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>4348</v>
+        <v>3637</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>352</v>
@@ -6127,13 +6124,13 @@
         <v>7986</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,34 +6139,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7">
+        <v>19221</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H29" s="7">
         <v>19</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>13196</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H29" s="7">
-        <v>28</v>
-      </c>
-      <c r="I29" s="7">
-        <v>19221</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -6178,10 +6175,10 @@
         <v>32417</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>361</v>
@@ -6193,10 +6190,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D30" s="7">
-        <v>67609</v>
+        <v>74425</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>362</v>
@@ -6208,19 +6205,19 @@
         <v>364</v>
       </c>
       <c r="H30" s="7">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I30" s="7">
-        <v>74425</v>
+        <v>67609</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M30" s="7">
         <v>197</v>
@@ -6229,13 +6226,13 @@
         <v>142033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,25 +6241,25 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D31" s="7">
-        <v>96940</v>
+        <v>84237</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>372</v>
       </c>
       <c r="H31" s="7">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I31" s="7">
-        <v>84237</v>
+        <v>96940</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>373</v>
@@ -6295,10 +6292,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D32" s="7">
-        <v>167821</v>
+        <v>159836</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>379</v>
@@ -6310,19 +6307,19 @@
         <v>381</v>
       </c>
       <c r="H32" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I32" s="7">
-        <v>159836</v>
+        <v>167821</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M32" s="7">
         <v>458</v>
@@ -6331,13 +6328,13 @@
         <v>327657</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,25 +6343,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>488</v>
+      </c>
+      <c r="D33" s="7">
+        <v>342067</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>488</v>
-      </c>
-      <c r="I33" s="7">
-        <v>342067</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -6393,7 +6390,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
